--- a/Assets/StreamingAssets/Table/AttributeInfo-.xlsx
+++ b/Assets/StreamingAssets/Table/AttributeInfo-.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0C722F-7C2D-47C8-BCFE-ADBBE2E59B2B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19EEE9F-AA9C-41CA-90B6-5E3851469938}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4965" yWindow="3750" windowWidth="22140" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="1770" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Attribute" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,18 +95,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>valueMax</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bonus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>属性英文名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,18 +107,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>最大值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>加成值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -168,14 +152,6 @@
   </si>
   <si>
     <t>技能点数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>current</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,7 +502,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -534,8 +510,8 @@
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="17.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="15" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15" style="2" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="13.375" style="2" customWidth="1"/>
     <col min="9" max="9" width="17.5" style="2" customWidth="1"/>
@@ -553,24 +529,16 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="G1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -592,15 +560,8 @@
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -621,17 +582,10 @@
         <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E3" s="1"/>
+      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -643,26 +597,19 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
         <v>99</v>
       </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
+      <c r="E4" s="1"/>
+      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -674,26 +621,19 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>1002</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
         <v>99999</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
+      <c r="E5" s="1"/>
+      <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -705,26 +645,19 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>1003</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
         <v>999</v>
       </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
+      <c r="E6" s="1"/>
+      <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -736,26 +669,19 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>1004</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
         <v>9</v>
       </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
+      <c r="E7" s="1"/>
+      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -767,26 +693,19 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>1005</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
         <v>9</v>
       </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
+      <c r="E8" s="1"/>
+      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -798,26 +717,19 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>6</v>
+        <v>1006</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
         <v>99</v>
       </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
+      <c r="E9" s="1"/>
+      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -829,26 +741,19 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>1007</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
         <v>99</v>
       </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
+      <c r="E10" s="1"/>
+      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -860,26 +765,19 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>1008</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
         <v>99</v>
       </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
+      <c r="E11" s="1"/>
+      <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -891,26 +789,19 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>9</v>
+        <v>1009</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
         <v>9</v>
       </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
+      <c r="E12" s="1"/>
+      <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -922,26 +813,19 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>10</v>
+        <v>1010</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
         <v>99</v>
       </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
+      <c r="E13" s="1"/>
+      <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -953,26 +837,19 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>11</v>
+        <v>1011</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
         <v>99</v>
       </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
+      <c r="E14" s="1"/>
+      <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -984,7 +861,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="D15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -997,7 +874,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="D16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1014,7 +891,6 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1031,7 +907,6 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1048,7 +923,6 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1065,7 +939,6 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
